--- a/oai-marc/MARC.xlsx
+++ b/oai-marc/MARC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6C897C-DFF9-4FEC-8BAA-673EDED2F560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2350" windowHeight="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="393">
   <si>
     <t>001</t>
   </si>
@@ -1043,409 +1044,174 @@
     <t>Povolená podpole: ke všem zažuceným přidat jakoposlední v pořadí podpole x</t>
   </si>
   <si>
-    <t>Nové kontroly:</t>
-  </si>
-  <si>
-    <t>V poli 008 není platné datum.</t>
-  </si>
-  <si>
-    <t>Je na pozici 08-14 platné datum ve tvaru RRRR, nebo RRRRMM, nebo RRRRMMDD? Pokud je v poli znak "u", je zápis b pořádku, např. tvary 19uu či 198u</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Pakliže platí, že (a) země vydání v 008 či 044 má tvar "xr", (b) jde o knihu (v LDR je na 8. pozici "m"), (c ) pole 506 nezačíná na "Bez čísla ČNB", nemůže být pole 015 prázdné.</t>
-  </si>
-  <si>
-    <t>Chybí číslo ČNB.</t>
-  </si>
-  <si>
-    <t>Má obsahovat pouze podpole a s hodnotou ve tvaru "cnbXXXXXXXXX" (X=číslo). Jiný tvar = chyba.</t>
-  </si>
-  <si>
-    <t>Chybný tvar čísla ČNB.</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>Chybí ISBN.</t>
-  </si>
-  <si>
-    <t>020a</t>
-  </si>
-  <si>
-    <t>Jde-li o knihu (LDR má na 8. pozici hodnotu "m"), vydanou od roku 1989 (008 - 8.-11.znak), a v poli 506 není řetězec "ISBN" (píšeme, pokud chybí a je to náležité) musí mít přiděleno ISBN (=pole 020a), jinak chyba.</t>
-  </si>
-  <si>
-    <t>Obsahuje buď 13 numerických znaků, popř. X, a 4 spojovníky, nebo 10 numerických znaků, popř. X, a 3 spojovníky. Cokoli jiného je chyba.</t>
-  </si>
-  <si>
-    <t>Chybný tvar ISBN.</t>
-  </si>
-  <si>
-    <t>020q</t>
-  </si>
-  <si>
-    <t>020q musí začínat a končit kulatou závorkou. Pokud je podpolí q v poli více, začíná tak první v pořadí a končí poslední v pořadí, vzájemně musí být oddělena ; , tj. vzniká např. $$q(1. svazek ;$$qAcademia ;$$qbrožováno) Jakákoli jiná interpunkce je chybná.</t>
-  </si>
-  <si>
-    <t>Chybná interpunkce v poli 020q.</t>
-  </si>
-  <si>
-    <t>Povolena jsou pouze podpole a, q a z. Jinak chyba.</t>
-  </si>
-  <si>
-    <t>Chybný kód podpole v poli 020 (povoleno a, q, z).</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>Zde je označení staré báze. Vyskytuje se tedy pouze tehdy, pokud je v poli 964 hodnota B70, B80, B97, CLE, ECS, ECR a RET. Pokud v 964 tato hodnota není a 035 je vyplněno, jde o chybu.</t>
-  </si>
-  <si>
-    <t>Chybné označení báze v 964 (je vyplněno pole 035).</t>
-  </si>
-  <si>
-    <t>Recipročně to samé: je-li vyplněno 964 výše uvedenými hodnotami, musí být vyplněno 035.</t>
-  </si>
-  <si>
-    <t>Chybí pole 035.</t>
-  </si>
-  <si>
-    <t>035a</t>
-  </si>
-  <si>
-    <t>Pokud je 035 vyplněno, pak jsou tato pole vždy právě dvě a obě začínají na řetězec: "(ISIS-XXX", přičemž XXX má hodnotu B70, B80, B97, CLE, ECS, ECR nebo RET. Jinak jde o chybu.</t>
-  </si>
-  <si>
-    <t>Chybná hodnota v 035a.</t>
-  </si>
-  <si>
-    <t>100c</t>
-  </si>
-  <si>
-    <t>Nesoulad mezi názvem zdrojového dokument v 100c a 773t.</t>
-  </si>
-  <si>
-    <t>Pokud 100c obsahuje hodnotu v [], musí tato odpovídat obsahu podpole 773t. Jinak chyba.</t>
-  </si>
-  <si>
-    <t>110c</t>
-  </si>
-  <si>
-    <t>Chybný zápis podpole 110c (má obsahovat název zdrojového dokumnetu).</t>
-  </si>
-  <si>
-    <t>110b</t>
-  </si>
-  <si>
-    <t>Chybí podpole 110b (nebo je chybný indikátor).</t>
-  </si>
-  <si>
-    <t>Je-li obsaženo podpole c začínající na [,</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Je-li první ind. 1, musí pole </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">110 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>obsahovat podpole b</t>
-    </r>
-  </si>
-  <si>
-    <t>710c</t>
-  </si>
-  <si>
-    <t>Chybný zápis podpole 710c (má obsahovat název zdrojového dokumnetu).</t>
-  </si>
-  <si>
-    <t>710b</t>
-  </si>
-  <si>
-    <t>Je-li první ind. 1, musí pole 710 obsahovat podpole b</t>
-  </si>
-  <si>
-    <t>Chybí podpole 710b (nebo je chybný indikátor).</t>
-  </si>
-  <si>
-    <t>Je-li první ind. 0, musí pole 710 obsahovat podpole c zančínající na [.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Je-li první ind. 0, musí pole </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> obsahovat podpole c zančínající na [.</t>
-    </r>
-  </si>
-  <si>
-    <t>245c</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 245c středník neoddělený zleva i zprava právě jednou mezerou</t>
-  </si>
-  <si>
-    <t>Chybný zápis ; v 245c.</t>
-  </si>
-  <si>
-    <t>Chybná interpunkce v 245 c - mezi [ a = je chybně mezera.</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 245c odlišný počet [ a ] (musí být vždy do páru).</t>
-  </si>
-  <si>
-    <t>245b</t>
-  </si>
-  <si>
-    <t>chyba může být, je-li v poli 245a či b číslice do 20, včetně římských variant</t>
-  </si>
-  <si>
-    <t>problém je kombinace ". :" v poli 245 (výjimka ="... :"</t>
-  </si>
-  <si>
-    <t>chyba je, začíná-li 245c na malé písmeno a 1. ind = 1</t>
-  </si>
-  <si>
-    <t>chyba je, pokud po čárce není mezera</t>
-  </si>
-  <si>
-    <t>505r</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 505r středník neoddělený zleva i zprava právě jednou mezerou</t>
-  </si>
-  <si>
-    <t>Chybný zápis ; v 505r.</t>
-  </si>
-  <si>
-    <t>787n</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 787n středník neoddělený zleva i zprava právě jednou mezerou</t>
-  </si>
-  <si>
-    <t>Chybný zápis ; v 787n.</t>
-  </si>
-  <si>
-    <t>787k</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 787k středník neoddělený zleva i zprava právě jednou mezerou</t>
-  </si>
-  <si>
-    <t>Chybný zápis ; v 787k.</t>
-  </si>
-  <si>
-    <t>773n</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 773n středník neoddělený zleva i zprava právě jednou mezerou</t>
-  </si>
-  <si>
-    <t>Chybný zápis ; v 773n.</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 245c kombinace "[_="  (_=mezera).</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 505r kombinace "[_=" (_=mezera).</t>
-  </si>
-  <si>
-    <t>Chybná interpunkce v 245r - mezi [ a = je chybně mezera.</t>
-  </si>
-  <si>
-    <t>Odlišný počet [ a ] v poli 245c.</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud je v poli 505r odlišný počet [ a ] (musí být vždy do páru).</t>
-  </si>
-  <si>
-    <t>Odlišný počet [ a ] v poli 505r.</t>
-  </si>
-  <si>
-    <t>Chyba je, pokud pole 245 má 1. indikátor 0 a záznam neobsahuje buď podpole 700, nebo v poli 500 nemá hodnotu "Nepodepsáno."</t>
-  </si>
-  <si>
-    <t>Chybný 1. indikátor pole 245c (chybí hodnota v poli 700, nebo "Nepodepsáno." v poli 500).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chyba je, pokud v 245c je po ; první znak po mezeře velké písmeno a jazyk dokumentu není němčina (pole 008, 36.-38. znak, popř. 041 pak obsahuje kód "ger") </t>
-  </si>
-  <si>
-    <t>Chyba v poli 245c (po ; následuje velké písmeno).</t>
-  </si>
-  <si>
-    <t>chyba je, pokud je v 245 první ind. 0, 245c začíná velkým písmenem a 245c zároveň neobsahuje řetězec "ed.", "edd.", "eds.", "Hg." (nezáleží na velikosti písmen)</t>
-  </si>
-  <si>
-    <t>Chybný zápis pole 245c (při indikátoru 0 by nemělo začínat velkým písmenem).</t>
-  </si>
-  <si>
-    <t>chyba je, pokud 245b začíná (</t>
-  </si>
-  <si>
-    <t>Pole 245b nemá začínat na (.</t>
-  </si>
-  <si>
-    <t>245 a či b</t>
-  </si>
-  <si>
-    <t>Možná chyba v poli 245a či b, označení části je třeba zapsat do pole 245n.</t>
-  </si>
-  <si>
-    <t>Nepovolená kombinace "._:" v poli 245.</t>
-  </si>
-  <si>
-    <t>Chybný zápis 245c (pokud je 1. indikátor 1, nemůže začínat na malé písmeno).</t>
-  </si>
-  <si>
-    <t>chyba je, pokud 245 má indikátor 1 a neobsahuje podpole c</t>
-  </si>
-  <si>
-    <t>Chybná hodnota 1. indikátoru (chybí podpole c).</t>
-  </si>
-  <si>
-    <t>obecně</t>
-  </si>
-  <si>
-    <t>znaku = může předcházet jen číslo, mezera nebo [</t>
-  </si>
-  <si>
-    <t>Chybný znak před znakem =.</t>
-  </si>
-  <si>
-    <t>chyba je, pokud v 245c jsou v [] uzavřena dvě či více slov začínající velkým písmenem a uvnitř závorek zároveň není čárka</t>
-  </si>
-  <si>
-    <t>Chybný zápis dešifrovaného jména v 245c.</t>
-  </si>
-  <si>
-    <t>chyba je, pokud v 505r jsou v [] uzavřena dvě či více slov začínající velkým písmenem a uvnitř závorek zároveň není čárka</t>
-  </si>
-  <si>
-    <t>Chybný zápis dešifrovaného jména v 505r.</t>
-  </si>
-  <si>
-    <t>chyba je, pokud v 245c je řetězec "(s._+numerický znak)</t>
-  </si>
-  <si>
-    <t>Nenáležitý zápis stran v 245c</t>
-  </si>
-  <si>
-    <t>Obecně</t>
-  </si>
-  <si>
-    <t>Chybí mezera za čárkou.</t>
-  </si>
-  <si>
-    <t>264a</t>
-  </si>
-  <si>
-    <t>264b</t>
-  </si>
-  <si>
-    <t>Chybná interpunce před podpolem b (má být dvojtečka).</t>
-  </si>
-  <si>
-    <t>Jakémukoli podpoli 264b musí předcházet podpole končící : - jinak chyba.</t>
-  </si>
-  <si>
-    <t>Chybná interpunkce před podpolem a (má být středník).</t>
-  </si>
-  <si>
-    <t>260a</t>
-  </si>
-  <si>
-    <t>Pokud podpoli 264a předchází jiné podpole, musí to předcházející končit ; - jinak chyba.</t>
-  </si>
-  <si>
-    <t>Pokud podpoli 260a předchází jiné podpole, musí to předcházející končit ; - jinak chyba.</t>
-  </si>
-  <si>
-    <t>260b</t>
-  </si>
-  <si>
-    <t>Jakémukoli podpoli 260b musí předcházet podpole končící : - jinak chyba.</t>
-  </si>
-  <si>
-    <t>300e</t>
-  </si>
-  <si>
-    <t>Pokud poel 300 začíná podpolem 300e, musí být v 964a hodnota INT.</t>
-  </si>
-  <si>
-    <t>Chybný zápis pole 300 (nebo v 964 chybí kód INT).</t>
-  </si>
-  <si>
-    <t>Předchází-li podpoli a podpole v, musí předcházející končit tečkou. Jinak chyba.</t>
-  </si>
-  <si>
-    <t>Předchází-li podpoli a podpole a, musí předcházející končit znakem rovná se. Jinak chyba.</t>
-  </si>
-  <si>
-    <t>Chybné oddělení opakovaného podpole a (má být tečka).</t>
-  </si>
-  <si>
-    <t>Chybné oddělení opakovaného podpole a (má být rovnítko).</t>
+    <t>008, 7. pozice</t>
+  </si>
+  <si>
+    <t>na 7. místě v pořadí mohou být hodnoty "s", "d", "m" a "q" - jiný kód = chyba</t>
+  </si>
+  <si>
+    <t>008, 8.-15. pozice</t>
+  </si>
+  <si>
+    <t>008, 7 + 8-15</t>
+  </si>
+  <si>
+    <t>pokud na 7. pozici je hodnota "s", musí jít o datum ve tvaru RRRR</t>
+  </si>
+  <si>
+    <t>pokud na 7. pozici je hodnota "q", mělo by jít o datum ve tvaru RRRR (ověříme, zda je OK)</t>
+  </si>
+  <si>
+    <t>008, 8-15 vs. 260/264</t>
+  </si>
+  <si>
+    <t>008, 8-15 vs. 773-9</t>
+  </si>
+  <si>
+    <t>u záznamů knih (pole LDR má na 8. pozici "m") údaj na pozici 8-11 odpovídá obsahu pole 260c, nebo 264c ve stejném záznamu (je vždy vyplněno buď jedno, nebo druhé pole)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u záznamů článků (pole LDR má na 8. pozici "b")  údaj na obsahu podpole 773-9 po případný první nenumerický znak (obvykle pomlčka) pozici 8-15 (bez případných pomlček na konci řetězce) odpovídá </t>
+  </si>
+  <si>
+    <t>008, 16-18</t>
+  </si>
+  <si>
+    <t>prosím ověřit platnost kódů zemí (kódovník (=seznam povolených hodnot) je k dispozici zde:
+https://www.caslin.cz/caslin/spoluprace/jak-prispivat-do-sk-cr/standardy/kody-zemi-marc/view )</t>
+  </si>
+  <si>
+    <t>008, 36-38</t>
+  </si>
+  <si>
+    <t>prosím ověřit platnost kódů jazyků; kódovník (=seznam povolených hodnot) je k dispozici zde: https://www.caslin.cz/caslin/spoluprace/jak-prispivat-do-sk-cr/standardy/kody-jazyku-marc/view</t>
+  </si>
+  <si>
+    <t>008,36-38 vs. 041</t>
+  </si>
+  <si>
+    <t>prosím ověřit, zda pole obsahuje alespoň dvě podpole (pokud je uvedeno jen jedno, jde o chybu)</t>
+  </si>
+  <si>
+    <t>008, 16-18 vs. 044</t>
+  </si>
+  <si>
+    <t>prosím ověřit, zda kód jazyka v poli 008, pozice 36-38 odpovdá prvnímu uvedenému jazyku v pořadí v poli 041 (pole 041 nemusí být vyplněno)</t>
+  </si>
+  <si>
+    <t>prosím ověřit, zda kód země v poli 008, pozice 16-18 odpovdá prvnímu uvedenému jazyku v pořadí v poli 044 (pole 044 nemusí být vyplněno)</t>
+  </si>
+  <si>
+    <t>prosím ověřit, zda podpole 4 obsahují jen povolené kódy rolí (soupis v příloze)</t>
+  </si>
+  <si>
+    <t>100-4</t>
+  </si>
+  <si>
+    <t>prosím ověřit, zda pokud je přítomno podpole j, má hodnotu "bbg" nebo "rej"</t>
+  </si>
+  <si>
+    <t>prosím ověřit, zda pokud je vyplněno podpole j v poli 100 či 700, je ve stejném poli podpole 4 s hodnotou "oth"</t>
+  </si>
+  <si>
+    <t>Chybný kód data v poli 008.</t>
+  </si>
+  <si>
+    <t>Neplatné datum v poli 008.</t>
+  </si>
+  <si>
+    <t>Nesoulad mezi kódem data a datem (má být RRRR).</t>
+  </si>
+  <si>
+    <t>Nesoulad mezi kódem data a datem (má být RRRRMM nebo RRRRMMDD).</t>
+  </si>
+  <si>
+    <t>Nesoulad mezi kódem data a datem (není interval roků).</t>
+  </si>
+  <si>
+    <t>Nesoulad mezi daty v poli 008 a 260/264.</t>
+  </si>
+  <si>
+    <t>Nesoulad mezi daty v poli 008 a 773-9.</t>
+  </si>
+  <si>
+    <t>Chybný kód země v poli 008.</t>
+  </si>
+  <si>
+    <t>Nesoulad mezi kódy zemí v poli 008 a 044.</t>
+  </si>
+  <si>
+    <t>Chybný kód jazyka v poli 008.</t>
+  </si>
+  <si>
+    <t>Chybný kód jazyka v poli 041.</t>
+  </si>
+  <si>
+    <t>Nesoulad mezi kódy jazyků v poli 008 a 041.</t>
+  </si>
+  <si>
+    <t>Pole 041 musí obsahovat 2 a více podpolí.</t>
+  </si>
+  <si>
+    <t>Chybný kód země v poli 044.</t>
+  </si>
+  <si>
+    <t>Pole 044 musí obsahovat 2 a více podpolí.</t>
+  </si>
+  <si>
+    <t>Chybný kód role v poli 100.</t>
+  </si>
+  <si>
+    <t>Chybný kód role v poli 700.</t>
+  </si>
+  <si>
+    <t>V poli 100 chybí kód role "aut" nebo "ive".</t>
+  </si>
+  <si>
+    <t>Chybný kód role v podpoli 100j.</t>
+  </si>
+  <si>
+    <t>700j</t>
+  </si>
+  <si>
+    <t>100j</t>
+  </si>
+  <si>
+    <t>Chybný kód role v podpoli 700j.</t>
+  </si>
+  <si>
+    <t>V poli 100 chybí podpole 4 s hodnotou "oth".</t>
+  </si>
+  <si>
+    <t>100j vs. 4</t>
+  </si>
+  <si>
+    <t>700j vs. 4</t>
+  </si>
+  <si>
+    <t>V poli 700 chybí podpole 4 s hodnotou "oth".</t>
+  </si>
+  <si>
+    <t>na pozici 8-15 je datum - pokud nejsou využity všechny pozice, pak je zprava doplněné o 2 či 4 pomlčky; prosím ověřit, zda je datum platné (může mít tvar RRR, RRRRMM nebo RRRRMMDD, resp. RRRR----/RRRRMM--</t>
+  </si>
+  <si>
+    <t>pokud na 7. pozici je hodnota "e", musí jít o datum ve tvaru RRRRMM/RRRRMM-- nebo RRRRMMDD</t>
+  </si>
+  <si>
+    <t>pokud na 7. pozici je hodnota "m", musí jít o interval roků, např. 19471949 (= 2x RRRR)</t>
+  </si>
+  <si>
+    <t>prosím ověřit, zda podpole 4 v poli 100 obsahuje vždy kód "aut" nebo "ive" (může obsahovat i jiné, ale jedno z těchto dvou musí být vyplněno vždy; popř. je podpole 4 neyvplněné)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1478,14 +1244,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1508,7 +1271,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1546,7 +1309,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1581,6 +1344,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1616,9 +1396,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1791,17 +1588,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.90625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -1809,7 +1606,7 @@
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1825,7 +1622,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1836,7 +1633,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1847,7 +1644,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1858,7 +1655,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1869,7 +1666,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1880,7 +1677,7 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1891,7 +1688,7 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1902,7 +1699,7 @@
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1913,7 +1710,7 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1924,7 +1721,7 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1935,7 +1732,7 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1946,7 +1743,7 @@
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1957,7 +1754,7 @@
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1968,7 +1765,7 @@
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1979,7 +1776,7 @@
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1995,7 +1792,7 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2006,7 +1803,7 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2017,7 +1814,7 @@
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2028,7 +1825,7 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2039,7 +1836,7 @@
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2050,7 +1847,7 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2061,7 +1858,7 @@
       <c r="A27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2072,7 +1869,7 @@
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2083,7 +1880,7 @@
       <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2094,7 +1891,7 @@
       <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2110,7 +1907,7 @@
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2121,7 +1918,7 @@
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2132,7 +1929,7 @@
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2143,7 +1940,7 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2154,7 +1951,7 @@
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2165,7 +1962,7 @@
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2176,7 +1973,7 @@
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2187,7 +1984,7 @@
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2198,7 +1995,7 @@
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2209,7 +2006,7 @@
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2220,7 +2017,7 @@
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2231,7 +2028,7 @@
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2242,7 +2039,7 @@
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2253,7 +2050,7 @@
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2264,7 +2061,7 @@
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2275,7 +2072,7 @@
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2286,7 +2083,7 @@
       <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2297,7 +2094,7 @@
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2308,7 +2105,7 @@
       <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2319,7 +2116,7 @@
       <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2330,7 +2127,7 @@
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2341,7 +2138,7 @@
       <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2352,7 +2149,7 @@
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2363,7 +2160,7 @@
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2374,7 +2171,7 @@
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2385,7 +2182,7 @@
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2396,7 +2193,7 @@
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2407,7 +2204,7 @@
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2418,7 +2215,7 @@
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2434,7 +2231,7 @@
       <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2450,7 +2247,7 @@
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2461,7 +2258,7 @@
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2472,7 +2269,7 @@
       <c r="A69" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2483,7 +2280,7 @@
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2494,7 +2291,7 @@
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2505,7 +2302,7 @@
       <c r="A72" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2516,7 +2313,7 @@
       <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2527,7 +2324,7 @@
       <c r="A74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2538,7 +2335,7 @@
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2549,7 +2346,7 @@
       <c r="A76" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2560,7 +2357,7 @@
       <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2571,7 +2368,7 @@
       <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2582,7 +2379,7 @@
       <c r="A79" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2593,7 +2390,7 @@
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2604,7 +2401,7 @@
       <c r="A81" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2615,7 +2412,7 @@
       <c r="A82" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2626,7 +2423,7 @@
       <c r="A83" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2637,7 +2434,7 @@
       <c r="A84" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2649,11 +2446,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2664,7 +2461,7 @@
       <c r="A88" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2681,18 +2478,18 @@
       <c r="A89" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2706,22 +2503,22 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2737,7 +2534,7 @@
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2748,7 +2545,7 @@
       <c r="A96" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2759,7 +2556,7 @@
       <c r="A97" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2770,7 +2567,7 @@
       <c r="A98" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2781,7 +2578,7 @@
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2792,7 +2589,7 @@
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2803,7 +2600,7 @@
       <c r="A101" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -2814,7 +2611,7 @@
       <c r="A102" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2825,7 +2622,7 @@
       <c r="A103" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2836,7 +2633,7 @@
       <c r="A104" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -2847,7 +2644,7 @@
       <c r="A105" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2858,7 +2655,7 @@
       <c r="A106" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -2869,7 +2666,7 @@
       <c r="A107" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -2880,7 +2677,7 @@
       <c r="A108" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -2891,7 +2688,7 @@
       <c r="A109" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -2902,7 +2699,7 @@
       <c r="A110" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -2913,7 +2710,7 @@
       <c r="A111" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -2924,7 +2721,7 @@
       <c r="A112" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -2935,7 +2732,7 @@
       <c r="A113" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -2946,7 +2743,7 @@
       <c r="A114" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2957,7 +2754,7 @@
       <c r="A115" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -2968,7 +2765,7 @@
       <c r="A116" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -2979,7 +2776,7 @@
       <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -2990,7 +2787,7 @@
       <c r="A118" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -3001,7 +2798,7 @@
       <c r="A119" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3012,7 +2809,7 @@
       <c r="A120" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -3023,7 +2820,7 @@
       <c r="A121" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3034,7 +2831,7 @@
       <c r="A122" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -3045,7 +2842,7 @@
       <c r="A123" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -3056,7 +2853,7 @@
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -3067,7 +2864,7 @@
       <c r="A125" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -3088,7 +2885,7 @@
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3096,7 +2893,7 @@
       <c r="A131" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="1" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3104,7 +2901,7 @@
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3112,7 +2909,7 @@
       <c r="A133" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3120,7 +2917,7 @@
       <c r="A134" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3128,7 +2925,7 @@
       <c r="A135" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3201,7 +2998,7 @@
       <c r="A151" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -3212,7 +3009,7 @@
       <c r="A152" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -3223,7 +3020,7 @@
       <c r="A153" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -3234,7 +3031,7 @@
       <c r="A154" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -3245,7 +3042,7 @@
       <c r="A155" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -3256,7 +3053,7 @@
       <c r="A156" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -3267,7 +3064,7 @@
       <c r="A157" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -3278,7 +3075,7 @@
       <c r="A158" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -3289,183 +3086,183 @@
       <c r="A159" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -3507,23 +3304,34 @@
         <v>332</v>
       </c>
     </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B190" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>343</v>
       </c>
@@ -3531,7 +3339,7 @@
         <v>344</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -3539,136 +3347,139 @@
         <v>343</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A196" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="B198" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>377</v>
@@ -3676,340 +3487,79 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C207" s="1" t="s">
+    </row>
+    <row r="208" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B209" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A229" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A234" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A235" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +3569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4031,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
